--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ED376D4F-2BD9-4DD8-843D-5762D2DFCA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
     <sheet name="dataProviderOrg" sheetId="3" r:id="rId2"/>
     <sheet name="Contact" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>TC_ID</t>
   </si>
@@ -99,9 +101,6 @@
   </si>
   <si>
     <t>Infosys</t>
-  </si>
-  <si>
-    <t>Education</t>
   </si>
   <si>
     <t>Energy</t>
@@ -116,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,11 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,23 +449,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -478,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -489,7 +487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -503,7 +501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -517,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,7 +532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -557,20 +555,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -578,36 +576,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -616,21 +610,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.90625" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,7 +635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -652,7 +646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -666,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -676,7 +670,7 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
